--- a/반은숙/HD-OS_V0.1_파트리스트.xlsx
+++ b/반은숙/HD-OS_V0.1_파트리스트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#기타\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh\Desktop\hd_stock\반은숙\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73586FDF-5779-453F-A5E1-41AAD7B2475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B14FE63D-7F49-411E-8569-E53F5ECBC6CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="HD-OS_V0.1_파트리스트" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HD-OS_V0.1_파트리스트'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'변경 사항'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>정세진</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A0A46874-793B-4035-B50C-CF01AD8B6AE7}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1603,10 +1602,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>U, SWITCHER, SY6280AAC, LOW LOSS POWER DISTRIBUTION</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SOT-23-5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1676,10 +1671,6 @@
   </si>
   <si>
     <t>U1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG, LDO, TP5108E23E-18, 0.5A, 1.8V</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2287,13 +2278,21 @@
   </si>
   <si>
     <t>RT9013-18 로 통일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U, SWITCHER, SY6280AAC, LOW LOSS POWER DISTRIBUTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG, LDO, TP5108E23E-18, 0.5A, 1.8V</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -2884,9 +2883,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="백분율 10" xfId="1" xr:uid="{0172DDDC-FFD1-49F2-81B2-0EF4D1CBFE3A}"/>
+    <cellStyle name="백분율 10" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 225" xfId="2" xr:uid="{DF519A59-BDDF-4D90-BD3B-FEB4A8E5CFB5}"/>
+    <cellStyle name="표준 225" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3197,15 +3196,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CCEB8A-7951-4B31-8ACC-1E691C233B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -3217,22 +3216,22 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J1" s="2"/>
       <c r="L1" s="56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -3288,22 +3287,22 @@
       <c r="I3" s="16"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="48"/>
       <c r="B4" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>307</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>309</v>
       </c>
       <c r="E4" s="51">
         <v>1</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>27</v>
@@ -3314,25 +3313,25 @@
       <c r="I4" s="54"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="48"/>
       <c r="B5" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>311</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>313</v>
       </c>
       <c r="E5" s="51">
         <v>2</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>20</v>
@@ -3340,25 +3339,25 @@
       <c r="I5" s="54"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -3366,7 +3365,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="48"/>
       <c r="B7" s="48" t="s">
         <v>29</v>
@@ -3392,25 +3391,25 @@
       <c r="I7" s="54"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="48"/>
       <c r="B8" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>275</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>277</v>
       </c>
       <c r="E8" s="51">
         <v>1</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>20</v>
@@ -3418,25 +3417,25 @@
       <c r="I8" s="54"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="48"/>
       <c r="B9" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>258</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>260</v>
       </c>
       <c r="E9" s="51">
         <v>1</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>20</v>
@@ -3444,7 +3443,7 @@
       <c r="I9" s="54"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
@@ -3466,11 +3465,11 @@
       <c r="I10" s="16"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>10</v>
@@ -3488,7 +3487,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>50</v>
@@ -3514,7 +3513,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>53</v>
@@ -3540,7 +3539,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.6">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>48</v>
@@ -3566,7 +3565,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>66</v>
@@ -3592,7 +3591,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:13" ht="101.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>37</v>
@@ -3618,7 +3617,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>44</v>
@@ -3644,7 +3643,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>63</v>
@@ -3670,7 +3669,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="39.4" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -3696,7 +3695,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="52.5" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>40</v>
@@ -3722,7 +3721,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>46</v>
@@ -3748,7 +3747,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>59</v>
@@ -3774,7 +3773,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A23" s="58"/>
       <c r="B23" s="58" t="s">
         <v>56</v>
@@ -3800,10 +3799,10 @@
       <c r="I23" s="64"/>
       <c r="J23" s="65"/>
       <c r="K23" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
@@ -3827,10 +3826,10 @@
       <c r="I24" s="64"/>
       <c r="J24" s="65"/>
       <c r="K24" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
         <v>196</v>
@@ -3856,10 +3855,10 @@
       <c r="I25" s="54"/>
       <c r="J25" s="55"/>
       <c r="K25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A26" s="48"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
@@ -3883,7 +3882,7 @@
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
@@ -3907,10 +3906,10 @@
       <c r="I27" s="64"/>
       <c r="J27" s="65"/>
       <c r="K27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="52.5" x14ac:dyDescent="0.6">
       <c r="A28" s="58"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59" t="s">
@@ -3934,10 +3933,10 @@
       <c r="I28" s="64"/>
       <c r="J28" s="65"/>
       <c r="K28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="52.5" x14ac:dyDescent="0.6">
       <c r="A29" s="58"/>
       <c r="B29" s="58"/>
       <c r="C29" s="59" t="s">
@@ -3961,10 +3960,10 @@
       <c r="I29" s="64"/>
       <c r="J29" s="65"/>
       <c r="K29" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
         <v>186</v>
@@ -3990,7 +3989,7 @@
       <c r="I30" s="54"/>
       <c r="J30" s="55"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A31" s="48"/>
       <c r="B31" s="48" t="s">
         <v>187</v>
@@ -4016,7 +4015,7 @@
       <c r="I31" s="54"/>
       <c r="J31" s="55"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A32" s="48"/>
       <c r="B32" s="48" t="s">
         <v>193</v>
@@ -4042,23 +4041,23 @@
       <c r="I32" s="54"/>
       <c r="J32" s="55"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="E33" s="5">
         <v>2</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>28</v>
@@ -4066,7 +4065,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A34" s="48"/>
       <c r="B34" s="48" t="s">
         <v>178</v>
@@ -4092,13 +4091,13 @@
       <c r="I34" s="54"/>
       <c r="J34" s="55"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A35" s="48"/>
       <c r="B35" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D35" s="50">
         <v>3216</v>
@@ -4107,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G35" s="53" t="s">
         <v>27</v>
@@ -4118,7 +4117,7 @@
       <c r="I35" s="54"/>
       <c r="J35" s="55"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
@@ -4142,10 +4141,10 @@
       <c r="I36" s="54"/>
       <c r="J36" s="55"/>
       <c r="K36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
@@ -4169,10 +4168,10 @@
       <c r="I37" s="54"/>
       <c r="J37" s="55"/>
       <c r="K37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="59" t="s">
@@ -4196,10 +4195,10 @@
       <c r="I38" s="64"/>
       <c r="J38" s="65"/>
       <c r="K38" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49" t="s">
@@ -4223,10 +4222,10 @@
       <c r="I39" s="54"/>
       <c r="J39" s="55"/>
       <c r="K39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="59" t="s">
@@ -4250,52 +4249,52 @@
       <c r="I40" s="64"/>
       <c r="J40" s="65"/>
       <c r="K40" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E41" s="5">
         <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A42" s="48"/>
       <c r="B42" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="50" t="s">
         <v>331</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>333</v>
       </c>
       <c r="E42" s="51">
         <v>1</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H42" s="53" t="s">
         <v>20</v>
@@ -4303,25 +4302,25 @@
       <c r="I42" s="54"/>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A43" s="48"/>
       <c r="B43" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E43" s="51">
         <v>1</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H43" s="53" t="s">
         <v>20</v>
@@ -4329,25 +4328,25 @@
       <c r="I43" s="54"/>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A44" s="58"/>
       <c r="B44" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>326</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>328</v>
       </c>
       <c r="E44" s="61">
         <v>1</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G44" s="63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H44" s="63" t="s">
         <v>28</v>
@@ -4355,26 +4354,26 @@
       <c r="I44" s="64"/>
       <c r="J44" s="65"/>
       <c r="K44" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E45" s="5">
         <v>2</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>28</v>
@@ -4382,25 +4381,25 @@
       <c r="I45" s="8"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A46" s="48"/>
       <c r="B46" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="50" t="s">
         <v>294</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>296</v>
       </c>
       <c r="E46" s="51">
         <v>1</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G46" s="53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H46" s="53" t="s">
         <v>28</v>
@@ -4408,23 +4407,23 @@
       <c r="I46" s="54"/>
       <c r="J46" s="55"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>28</v>
@@ -4432,23 +4431,23 @@
       <c r="I47" s="8"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>28</v>
@@ -4456,23 +4455,23 @@
       <c r="I48" s="8"/>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>28</v>
@@ -4480,49 +4479,49 @@
       <c r="I49" s="8"/>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A50" s="48"/>
       <c r="B50" s="48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E50" s="51">
         <v>1</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G50" s="53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H50" s="53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I50" s="54"/>
       <c r="J50" s="55"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>28</v>
@@ -4530,72 +4529,72 @@
       <c r="I51" s="8"/>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A52" s="48"/>
       <c r="B52" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="D52" s="50" t="s">
         <v>218</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>219</v>
       </c>
       <c r="E52" s="51">
         <v>1</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G52" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="53" t="s">
         <v>220</v>
-      </c>
-      <c r="H52" s="53" t="s">
-        <v>221</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="55"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A53" s="48"/>
       <c r="B53" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="50" t="s">
         <v>226</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="50" t="s">
-        <v>228</v>
       </c>
       <c r="E53" s="51">
         <v>1</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H53" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="55"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E54" s="61">
         <v>1</v>
       </c>
       <c r="F54" s="62" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G54" s="63" t="s">
         <v>171</v>
@@ -4606,26 +4605,26 @@
       <c r="I54" s="64"/>
       <c r="J54" s="65"/>
       <c r="K54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E55" s="5">
         <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>28</v>
@@ -4633,23 +4632,23 @@
       <c r="I55" s="8"/>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>28</v>
@@ -4657,20 +4656,20 @@
       <c r="I56" s="8"/>
       <c r="J56" s="17"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E57" s="5">
         <v>2</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>190</v>
@@ -4681,7 +4680,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="26.25" x14ac:dyDescent="0.6">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>77</v>
@@ -4707,7 +4706,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>92</v>
@@ -4733,7 +4732,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="39.4" x14ac:dyDescent="0.6">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>74</v>
@@ -4759,7 +4758,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>70</v>
@@ -4785,7 +4784,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="17"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>116</v>
@@ -4811,7 +4810,7 @@
       <c r="I62" s="8"/>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>149</v>
@@ -4837,7 +4836,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="17"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>119</v>
@@ -4863,7 +4862,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>83</v>
@@ -4889,7 +4888,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>86</v>
@@ -4915,7 +4914,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>101</v>
@@ -4941,7 +4940,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>135</v>
@@ -4967,7 +4966,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>141</v>
@@ -4993,7 +4992,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="17"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>104</v>
@@ -5019,7 +5018,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="17"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>126</v>
@@ -5045,7 +5044,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="17"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>107</v>
@@ -5071,7 +5070,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="17"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>129</v>
@@ -5097,7 +5096,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>89</v>
@@ -5123,7 +5122,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="17"/>
     </row>
-    <row r="75" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="26.25" x14ac:dyDescent="0.6">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>80</v>
@@ -5149,7 +5148,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="17"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>98</v>
@@ -5175,7 +5174,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="1:10" ht="101.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>72</v>
@@ -5201,7 +5200,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>95</v>
@@ -5227,7 +5226,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="17"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>110</v>
@@ -5253,7 +5252,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="17"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>144</v>
@@ -5279,7 +5278,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="17"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>138</v>
@@ -5305,7 +5304,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="17"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>132</v>
@@ -5331,7 +5330,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="17"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>113</v>
@@ -5357,7 +5356,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A84" s="58"/>
       <c r="B84" s="58" t="s">
         <v>122</v>
@@ -5383,28 +5382,28 @@
       <c r="I84" s="64"/>
       <c r="J84" s="65"/>
       <c r="K84" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A85" s="48"/>
       <c r="B85" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="50" t="s">
         <v>270</v>
-      </c>
-      <c r="C85" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="D85" s="50" t="s">
-        <v>272</v>
       </c>
       <c r="E85" s="51">
         <v>1</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H85" s="53" t="s">
         <v>20</v>
@@ -5412,344 +5411,344 @@
       <c r="I85" s="54"/>
       <c r="J85" s="55"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A86" s="58"/>
       <c r="B86" s="58"/>
       <c r="C86" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D86" s="60" t="s">
         <v>204</v>
-      </c>
-      <c r="D86" s="60" t="s">
-        <v>205</v>
       </c>
       <c r="E86" s="61">
         <v>3</v>
       </c>
       <c r="F86" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G86" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" s="63" t="s">
         <v>206</v>
-      </c>
-      <c r="H86" s="63" t="s">
-        <v>207</v>
       </c>
       <c r="I86" s="64"/>
       <c r="J86" s="65"/>
       <c r="K86" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A88" s="58"/>
       <c r="B88" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="60" t="s">
         <v>240</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="D88" s="60" t="s">
-        <v>242</v>
       </c>
       <c r="E88" s="61">
         <v>1</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G88" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H88" s="63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I88" s="64"/>
       <c r="J88" s="65"/>
       <c r="K88" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>190</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="17"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>166</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="17"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A91" s="48"/>
       <c r="B91" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C91" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E91" s="51">
         <v>1</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G91" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H91" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I91" s="54"/>
       <c r="J91" s="55"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E92" s="51">
         <v>1</v>
       </c>
       <c r="F92" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H92" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I92" s="54"/>
       <c r="J92" s="55"/>
       <c r="K92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E93" s="51">
         <v>1</v>
       </c>
       <c r="F93" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G93" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H93" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="54"/>
       <c r="J93" s="55"/>
       <c r="K93" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="59" t="s">
-        <v>223</v>
+        <v>369</v>
       </c>
       <c r="D94" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E94" s="61">
         <v>1</v>
       </c>
       <c r="F94" s="62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G94" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H94" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="64"/>
       <c r="J94" s="65"/>
       <c r="K94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E95" s="51">
         <v>1</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G95" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H95" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I95" s="54"/>
       <c r="J95" s="55"/>
       <c r="K95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A96" s="48"/>
       <c r="B96" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="50" t="s">
         <v>235</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="D96" s="50" t="s">
-        <v>237</v>
       </c>
       <c r="E96" s="51">
         <v>1</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G96" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H96" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I96" s="54"/>
       <c r="J96" s="55"/>
       <c r="K96" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="50" t="s">
         <v>209</v>
-      </c>
-      <c r="D97" s="50" t="s">
-        <v>210</v>
       </c>
       <c r="E97" s="51">
         <v>3</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G97" s="53" t="s">
         <v>190</v>
       </c>
       <c r="H97" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I97" s="54"/>
       <c r="J97" s="55"/>
       <c r="K97" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E98" s="5">
         <v>1</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="17"/>
@@ -5767,15 +5766,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF324C35-624F-45B4-A051-C5BEEF505AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.625" style="23" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -5783,7 +5782,7 @@
     <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>2023.07.03</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
@@ -5809,9 +5808,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
@@ -5820,21 +5819,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="27"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>

--- a/반은숙/HD-OS_V0.1_파트리스트.xlsx
+++ b/반은숙/HD-OS_V0.1_파트리스트.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#기타\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\hd_stock\반은숙\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73586FDF-5779-453F-A5E1-41AAD7B2475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B14FE63D-7F49-411E-8569-E53F5ECBC6CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="HD-OS_V0.1_파트리스트" sheetId="1" r:id="rId1"/>
     <sheet name="변경 사항" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HD-OS_V0.1_파트리스트'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HD-OS_V0.1_파트리스트'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'변경 사항'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>정세진</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A0A46874-793B-4035-B50C-CF01AD8B6AE7}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -2884,9 +2884,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="백분율 10" xfId="1" xr:uid="{0172DDDC-FFD1-49F2-81B2-0EF4D1CBFE3A}"/>
+    <cellStyle name="백분율 10" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 225" xfId="2" xr:uid="{DF519A59-BDDF-4D90-BD3B-FEB4A8E5CFB5}"/>
+    <cellStyle name="표준 225" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3197,27 +3197,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CCEB8A-7951-4B31-8ACC-1E691C233B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="9" width="9.58203125" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3225,6 +3226,9 @@
         <v>350</v>
       </c>
       <c r="J1" s="2"/>
+      <c r="K1" s="23">
+        <v>1608</v>
+      </c>
       <c r="L1" s="56" t="s">
         <v>352</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -3288,7 +3292,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="48"/>
       <c r="B4" s="48" t="s">
         <v>307</v>
@@ -3314,7 +3318,7 @@
       <c r="I4" s="54"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="48"/>
       <c r="B5" s="48" t="s">
         <v>311</v>
@@ -3340,7 +3344,7 @@
       <c r="I5" s="54"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>334</v>
@@ -3366,7 +3370,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="48"/>
       <c r="B7" s="48" t="s">
         <v>29</v>
@@ -3392,7 +3396,7 @@
       <c r="I7" s="54"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="48"/>
       <c r="B8" s="48" t="s">
         <v>275</v>
@@ -3418,7 +3422,7 @@
       <c r="I8" s="54"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="48"/>
       <c r="B9" s="48" t="s">
         <v>258</v>
@@ -3444,7 +3448,7 @@
       <c r="I9" s="54"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
@@ -3466,7 +3470,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -3488,7 +3492,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>50</v>
@@ -3514,7 +3518,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>53</v>
@@ -3540,7 +3544,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="23" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>48</v>
@@ -3566,7 +3570,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>66</v>
@@ -3592,7 +3596,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:13" ht="101.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="103.5" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>37</v>
@@ -3617,8 +3621,11 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="23" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>44</v>
@@ -3644,7 +3651,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>63</v>
@@ -3670,7 +3677,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -3696,7 +3703,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="46" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>40</v>
@@ -3722,7 +3729,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="23" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>46</v>
@@ -3748,7 +3755,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>59</v>
@@ -3774,7 +3781,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="58"/>
       <c r="B23" s="58" t="s">
         <v>56</v>
@@ -3803,7 +3810,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
@@ -3830,7 +3837,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
         <v>196</v>
@@ -3859,7 +3866,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="48"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
@@ -3883,7 +3890,7 @@
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
@@ -3910,7 +3917,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="46" x14ac:dyDescent="0.45">
       <c r="A28" s="58"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59" t="s">
@@ -3937,7 +3944,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="46" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="58"/>
       <c r="B29" s="58"/>
       <c r="C29" s="59" t="s">
@@ -3964,7 +3971,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
         <v>186</v>
@@ -3990,7 +3997,7 @@
       <c r="I30" s="54"/>
       <c r="J30" s="55"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="48"/>
       <c r="B31" s="48" t="s">
         <v>187</v>
@@ -4016,7 +4023,7 @@
       <c r="I31" s="54"/>
       <c r="J31" s="55"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="48"/>
       <c r="B32" s="48" t="s">
         <v>193</v>
@@ -4042,7 +4049,7 @@
       <c r="I32" s="54"/>
       <c r="J32" s="55"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
@@ -4066,7 +4073,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="48"/>
       <c r="B34" s="48" t="s">
         <v>178</v>
@@ -4092,7 +4099,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="55"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="48"/>
       <c r="B35" s="48" t="s">
         <v>339</v>
@@ -4118,7 +4125,7 @@
       <c r="I35" s="54"/>
       <c r="J35" s="55"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
@@ -4145,7 +4152,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
@@ -4172,7 +4179,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="59" t="s">
@@ -4199,7 +4206,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49" t="s">
@@ -4226,7 +4233,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="59" t="s">
@@ -4253,7 +4260,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
@@ -4277,7 +4284,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="48"/>
       <c r="B42" s="48" t="s">
         <v>331</v>
@@ -4303,7 +4310,7 @@
       <c r="I42" s="54"/>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="48"/>
       <c r="B43" s="48" t="s">
         <v>323</v>
@@ -4329,7 +4336,7 @@
       <c r="I43" s="54"/>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="58"/>
       <c r="B44" s="58" t="s">
         <v>326</v>
@@ -4358,7 +4365,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
@@ -4382,7 +4389,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="48"/>
       <c r="B46" s="48" t="s">
         <v>294</v>
@@ -4408,7 +4415,7 @@
       <c r="I46" s="54"/>
       <c r="J46" s="55"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
@@ -4432,7 +4439,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
@@ -4456,7 +4463,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4" t="s">
@@ -4480,7 +4487,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="48"/>
       <c r="B50" s="48" t="s">
         <v>319</v>
@@ -4506,7 +4513,7 @@
       <c r="I50" s="54"/>
       <c r="J50" s="55"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4" t="s">
@@ -4530,7 +4537,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="48"/>
       <c r="B52" s="48" t="s">
         <v>217</v>
@@ -4556,7 +4563,7 @@
       <c r="I52" s="54"/>
       <c r="J52" s="55"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="48"/>
       <c r="B53" s="48" t="s">
         <v>226</v>
@@ -4582,7 +4589,7 @@
       <c r="I53" s="54"/>
       <c r="J53" s="55"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="59" t="s">
@@ -4609,7 +4616,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
@@ -4633,7 +4640,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
@@ -4657,7 +4664,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="17"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4" t="s">
@@ -4681,7 +4688,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="23" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>77</v>
@@ -4707,7 +4714,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>92</v>
@@ -4733,7 +4740,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>74</v>
@@ -4759,7 +4766,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>70</v>
@@ -4785,7 +4792,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="17"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>116</v>
@@ -4811,7 +4818,7 @@
       <c r="I62" s="8"/>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>149</v>
@@ -4837,7 +4844,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="17"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>119</v>
@@ -4863,7 +4870,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>83</v>
@@ -4889,7 +4896,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>86</v>
@@ -4915,7 +4922,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>101</v>
@@ -4941,7 +4948,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>135</v>
@@ -4967,7 +4974,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>141</v>
@@ -4993,7 +5000,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="17"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>104</v>
@@ -5019,7 +5026,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="17"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>126</v>
@@ -5045,7 +5052,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="17"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>107</v>
@@ -5071,7 +5078,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="17"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>129</v>
@@ -5097,7 +5104,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>89</v>
@@ -5123,7 +5130,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="17"/>
     </row>
-    <row r="75" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="23" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>80</v>
@@ -5149,7 +5156,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="17"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>98</v>
@@ -5175,7 +5182,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="1:10" ht="101.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="103.5" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>72</v>
@@ -5201,7 +5208,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>95</v>
@@ -5227,7 +5234,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="17"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>110</v>
@@ -5253,7 +5260,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="17"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>144</v>
@@ -5279,7 +5286,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="17"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>138</v>
@@ -5305,7 +5312,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="17"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>132</v>
@@ -5331,7 +5338,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="17"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>113</v>
@@ -5357,7 +5364,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="58"/>
       <c r="B84" s="58" t="s">
         <v>122</v>
@@ -5386,7 +5393,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="48"/>
       <c r="B85" s="48" t="s">
         <v>270</v>
@@ -5412,7 +5419,7 @@
       <c r="I85" s="54"/>
       <c r="J85" s="55"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="58"/>
       <c r="B86" s="58"/>
       <c r="C86" s="59" t="s">
@@ -5439,7 +5446,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4" t="s">
@@ -5463,7 +5470,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="58"/>
       <c r="B88" s="58" t="s">
         <v>240</v>
@@ -5492,7 +5499,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4" t="s">
@@ -5516,7 +5523,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="17"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4" t="s">
@@ -5540,7 +5547,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="17"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="48"/>
       <c r="B91" s="48" t="s">
         <v>263</v>
@@ -5566,7 +5573,7 @@
       <c r="I91" s="54"/>
       <c r="J91" s="55"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="49" t="s">
@@ -5593,7 +5600,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="49" t="s">
@@ -5620,7 +5627,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="59" t="s">
@@ -5647,7 +5654,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="49" t="s">
@@ -5674,7 +5681,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="48"/>
       <c r="B96" s="48" t="s">
         <v>235</v>
@@ -5703,7 +5710,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="49" t="s">
@@ -5730,7 +5737,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4" t="s">
@@ -5755,6 +5762,13 @@
       <c r="J98" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:M98">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1005"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -5767,23 +5781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF324C35-624F-45B4-A051-C5BEEF505AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="3" max="4" width="45.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5792,7 +5806,7 @@
         <v>2023.07.03</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +5823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="41" t="s">
         <v>351</v>
       </c>
@@ -5820,21 +5834,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="27"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
